--- a/x2/model_x2_summary.xlsx
+++ b/x2/model_x2_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\x2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F4517-7EC1-4BC3-A4F5-855AE02FEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EEE86-427C-405A-9A14-18B9BB5C5575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11311,10 +11311,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12508,7 +12510,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{434BD305-1923-4D2B-8AC9-0CEE63DED9E4}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{434BD305-1923-4D2B-8AC9-0CEE63DED9E4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -12649,6 +12651,27 @@
     <dataField name="Average of test_mse" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -12677,27 +12700,6 @@
               <x v="17"/>
               <x v="18"/>
               <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -13005,8 +13007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008E7187-F7CC-4B8C-82EF-451CEB924427}">
   <dimension ref="A3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13017,15 +13019,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B4">
@@ -13048,485 +13050,485 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>3.1779713928699493E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2.6867184787988659E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>2.6539169251918789E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1.404266804456711E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>1.351992879062891E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>2.2549732960760592E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1.488914340734482E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1.5583730302751061E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>2.401702851057053E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1.5473163686692709E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>1.504731271415949E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>1.7002075724303723E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>2.15535145252943E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>2.217602543532848E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>1.611707545816898E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>2.773336507380009E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>1.8728382885456089E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>2.1261672675609584E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>2.7588751167058941E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>2.5800257921218869E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>2.2722160443663601E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>3.2547827810049057E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>1.853645034134388E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>2.5439089536666869E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1.8683962523937229E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>2.2182608023285869E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>1.707829162478447E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1.9157299771904949E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>1.5486234799027439E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>1.8517679348587994E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.9957451149821281E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1.7758473753929142E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>2.4483939632773399E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1.9839387387037281E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>3.0546260997653011E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>2.2517102584242821E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>1.4209995046257969E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>1.6099397093057629E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>2.003876119852066E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>2.990918792784214E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>3.3047407865524292E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>2.2660949826240541E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1.8359091132879261E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1.7420794814825061E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>2.069532684981823E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>2.3401431739330288E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>2.1483112126588821E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>2.0271951332688332E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>1.6953520476818081E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>5.0384398549795151E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>1.8866796046495441E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>2.8644947335124019E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>1.9440112635493279E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>2.6857955008745195E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1.9372105598449711E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>2.6009330525994301E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>3.5528369247913361E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>2.3139256983995441E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>2.5487571954727169E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>2.5907326862215994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>3.0366247519850731E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>4.3301492929458618E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>2.8374416753649712E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>1.6683980822563171E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>2.9840882867574688E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>2.9713404178619385E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>3.0245557427406311E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>1.925534754991531E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>2.1025370806455609E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>2.973531000316143E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>2.488582581281662E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>2.5029482319951057E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>3.4720316529273987E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1.9674263894557949E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1.6002189368009571E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>3.4297313541173928E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>2.2081999108195301E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>2.5355216488242148E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>1.89430508762598E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>4.347500205039978E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>2.4467108771204948E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>2.734707668423653E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>5.7802952826023102E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>3.4407038241624832E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>1.9715989008545879E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>1.871427521109581E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>2.123676240444183E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>2.053535915911198E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>3.9999350905418403E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>2.4040347337722777E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>3.4551844000816352E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>2.5837503373622891E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>3.8739513605833047E-2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>3.115515410900116E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>3.8610946387052543E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>3.3778992295265195E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>2.0015265792608261E-2</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>2.7623789384961132E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>2.3003887385129929E-2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>1.845976710319519E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>4.6086359769105911E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>2.7037813887000085E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>2.4394925683736801E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>3.4583278000354767E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>2.9532872140407559E-2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>2.3335050791501999E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>3.2800529152154922E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>2.8929331153631211E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>1.991331577301025E-2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>3.6953229457139969E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>3.6233551800251007E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>3.1237831339240071E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>2.481820993125439E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>2.9831227660179139E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>2.151048369705677E-2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>6.3917726278305054E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>2.6421871036291119E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>3.6721516400575638E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>2.018636837601662E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>3.3751593157649043E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>2.2886212263256312E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>2.8680905466899276E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>2.4556223116815091E-2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>2.5169844785705209E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>2.7421810012310744E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>2.5742999128997326E-2</v>
       </c>
     </row>
@@ -13563,8 +13565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13630,7 +13632,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -13649,13 +13651,13 @@
       <c r="F3">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>110</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>210</v>
       </c>
       <c r="J3" t="s">
